--- a/BuzzerBeater/src/main/java/資料庫表格/DEMO專用/DEMO資料.xlsx
+++ b/BuzzerBeater/src/main/java/資料庫表格/DEMO專用/DEMO資料.xlsx
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,139 +170,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -607,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -623,12 +514,11 @@
     <col min="6" max="7" width="45.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -638,95 +528,94 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
         <v>266316666</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -734,48 +623,48 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/BuzzerBeater/src/main/java/資料庫表格/DEMO專用/DEMO資料.xlsx
+++ b/BuzzerBeater/src/main/java/資料庫表格/DEMO專用/DEMO資料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -45,85 +45,87 @@
     <t>qwe10207</t>
   </si>
   <si>
+    <t>A組</t>
+  </si>
+  <si>
+    <t>EEIT9701</t>
+  </si>
+  <si>
+    <t>javaeeit972017@gmail.com</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>劉翰卿</t>
+  </si>
+  <si>
+    <t>提供多一點礦泉水</t>
+  </si>
+  <si>
+    <t>朱奕叡</t>
+  </si>
+  <si>
+    <t>F123456789</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>roc</t>
+  </si>
+  <si>
+    <t>1991-12-26</t>
+  </si>
+  <si>
+    <t>各位我們已經完成報名了，要加緊練習拉~</t>
+  </si>
+  <si>
+    <t>stageuser001</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>4311952222222222</t>
+  </si>
+  <si>
+    <t>Chris Paul 精采過人</t>
+  </si>
+  <si>
+    <t>新增賽季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增隊伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增球員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐付寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018賽季</t>
-  </si>
-  <si>
-    <t>A組</t>
-  </si>
-  <si>
-    <t>EEIT9701</t>
-  </si>
-  <si>
-    <t>javaeeit972017@gmail.com</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>劉翰卿</t>
-  </si>
-  <si>
-    <t>提供多一點礦泉水</t>
-  </si>
-  <si>
-    <t>朱奕叡</t>
-  </si>
-  <si>
-    <t>F123456789</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>roc</t>
-  </si>
-  <si>
-    <t>1991-12-26</t>
-  </si>
-  <si>
-    <t>各位我們已經完成報名了，要加緊練習拉~</t>
-  </si>
-  <si>
-    <t>stageuser001</t>
-  </si>
-  <si>
-    <t>test1234</t>
-  </si>
-  <si>
-    <t>4311952222222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Paul運球過人</t>
-  </si>
-  <si>
-    <t>Chris Paul 精采過人</t>
-  </si>
-  <si>
-    <t>走步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增賽季</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增隊伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增球員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歐付寶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,121 +190,156 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -363,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -628,61 +665,61 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -691,62 +728,62 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>27</v>
+      <c r="F14" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -765,18 +802,18 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>18</v>
+      <c r="B18" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
-        <v>19</v>
+      <c r="B20" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
